--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beacon\Beacon\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinusha.shetty\Documents\GitHub\NBFC_CLS_2.0\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE061E2-4A48-425E-8795-D31F2932F912}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40ABBFF-0C3B-44D4-8D3E-717B37B591F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BorrowerTab" sheetId="11" r:id="rId1"/>
     <sheet name="AccountsTab" sheetId="12" r:id="rId2"/>
+    <sheet name="GeneralOpening" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Yes</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t>Ac Sanction Ref No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -145,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF6C6-1900-4515-ACC8-CFB2E20222C1}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -626,9 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787BD8A-F5EF-4C74-BC86-E84355DABC17}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -688,4 +700,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3A9453-4F19-4927-BA0F-34737F3526D8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>